--- a/Code/Results/Cases/Case_9_52/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_9_52/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.012825445919298</v>
+        <v>1.011852897950059</v>
       </c>
       <c r="D2">
-        <v>1.031684539691143</v>
+        <v>1.030081183046337</v>
       </c>
       <c r="E2">
-        <v>1.026693408170976</v>
+        <v>1.025963384977781</v>
       </c>
       <c r="F2">
-        <v>1.036218761507886</v>
+        <v>1.035582921227929</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.053931155660926</v>
+        <v>1.053120299962319</v>
       </c>
       <c r="J2">
-        <v>1.034629202036109</v>
+        <v>1.033684779572698</v>
       </c>
       <c r="K2">
-        <v>1.042719424793438</v>
+        <v>1.041136761822455</v>
       </c>
       <c r="L2">
-        <v>1.037792977354073</v>
+        <v>1.037072481202358</v>
       </c>
       <c r="M2">
-        <v>1.047195558847972</v>
+        <v>1.046567825984255</v>
       </c>
       <c r="N2">
-        <v>1.014826856435819</v>
+        <v>1.015758767398285</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.045924489502071</v>
+        <v>1.04542768456289</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.041276616140357</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.040166288585358</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.022877925799381</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.017445179972403</v>
+        <v>1.016167877693987</v>
       </c>
       <c r="D3">
-        <v>1.034877127313012</v>
+        <v>1.032935195699876</v>
       </c>
       <c r="E3">
-        <v>1.030329180631708</v>
+        <v>1.029344404424078</v>
       </c>
       <c r="F3">
-        <v>1.039590225947751</v>
+        <v>1.038755910676253</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.055131068269037</v>
+        <v>1.054146496954158</v>
       </c>
       <c r="J3">
-        <v>1.037471311080914</v>
+        <v>1.036227287886702</v>
       </c>
       <c r="K3">
-        <v>1.045082380443779</v>
+        <v>1.043163318267538</v>
       </c>
       <c r="L3">
-        <v>1.040588161176305</v>
+        <v>1.03961509618254</v>
       </c>
       <c r="M3">
-        <v>1.04974041389645</v>
+        <v>1.048915801286449</v>
       </c>
       <c r="N3">
-        <v>1.015835457147803</v>
+        <v>1.016464803923465</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.04793855388442</v>
+        <v>1.047285934649226</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.042944767143811</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.041596297547951</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023324889728526</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.02037408103711</v>
+        <v>1.018906082632901</v>
       </c>
       <c r="D4">
-        <v>1.036902824473846</v>
+        <v>1.034747821352961</v>
       </c>
       <c r="E4">
-        <v>1.032640301068011</v>
+        <v>1.031496023172308</v>
       </c>
       <c r="F4">
-        <v>1.041734960463697</v>
+        <v>1.040776349477457</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.055878508504492</v>
+        <v>1.054784415757241</v>
       </c>
       <c r="J4">
-        <v>1.039270594224938</v>
+        <v>1.037838228606004</v>
       </c>
       <c r="K4">
-        <v>1.046575367081608</v>
+        <v>1.044444206545507</v>
       </c>
       <c r="L4">
-        <v>1.042360121922727</v>
+        <v>1.041228617787422</v>
       </c>
       <c r="M4">
-        <v>1.051354481382892</v>
+        <v>1.050406340901236</v>
       </c>
       <c r="N4">
-        <v>1.016473679836518</v>
+        <v>1.016912200227813</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.049215965973562</v>
+        <v>1.048465584906112</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.044001320177517</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.042502961475568</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023604981976488</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.021596360415272</v>
+        <v>1.020048941928845</v>
       </c>
       <c r="D5">
-        <v>1.037750463907149</v>
+        <v>1.035506757541503</v>
       </c>
       <c r="E5">
-        <v>1.033606819981374</v>
+        <v>1.032395991378601</v>
       </c>
       <c r="F5">
-        <v>1.042631404773662</v>
+        <v>1.041620968610313</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.056188644281896</v>
+        <v>1.055048902108265</v>
       </c>
       <c r="J5">
-        <v>1.040022582040601</v>
+        <v>1.03851159081916</v>
       </c>
       <c r="K5">
-        <v>1.047199933017249</v>
+        <v>1.044980387440691</v>
       </c>
       <c r="L5">
-        <v>1.043101009483377</v>
+        <v>1.041903331940372</v>
       </c>
       <c r="M5">
-        <v>1.052028754304712</v>
+        <v>1.05102905868371</v>
       </c>
       <c r="N5">
-        <v>1.016741809603378</v>
+        <v>1.017100150417073</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.049749601239504</v>
+        <v>1.048958418747041</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.044450064995115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.042889925985274</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023722477401912</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.021806760193023</v>
+        <v>1.020245206245436</v>
       </c>
       <c r="D6">
-        <v>1.037898758581606</v>
+        <v>1.035639626217433</v>
       </c>
       <c r="E6">
-        <v>1.033774056355471</v>
+        <v>1.032551251151002</v>
       </c>
       <c r="F6">
-        <v>1.042785479800318</v>
+        <v>1.041765772430551</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.056243620760572</v>
+        <v>1.055095928596935</v>
       </c>
       <c r="J6">
-        <v>1.040154149060195</v>
+        <v>1.038629164083733</v>
       </c>
       <c r="K6">
-        <v>1.047310756819658</v>
+        <v>1.045075839432718</v>
       </c>
       <c r="L6">
-        <v>1.043230363878265</v>
+        <v>1.042020777987716</v>
       </c>
       <c r="M6">
-        <v>1.052145537824358</v>
+        <v>1.051136619543889</v>
       </c>
       <c r="N6">
-        <v>1.016790505809121</v>
+        <v>1.017134101404578</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.049842026393121</v>
+        <v>1.049043544967501</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.044537117656823</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.042966983579163</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023744372784888</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.020406594802391</v>
+        <v>1.018945934753066</v>
       </c>
       <c r="D7">
-        <v>1.036931671618473</v>
+        <v>1.034781533284963</v>
       </c>
       <c r="E7">
-        <v>1.032668141887926</v>
+        <v>1.031530095696854</v>
       </c>
       <c r="F7">
-        <v>1.04175790409489</v>
+        <v>1.040804083211683</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.055891533583605</v>
+        <v>1.054800040567503</v>
       </c>
       <c r="J7">
-        <v>1.039296415103588</v>
+        <v>1.037871193426432</v>
       </c>
       <c r="K7">
-        <v>1.046601036995189</v>
+        <v>1.044474677737858</v>
       </c>
       <c r="L7">
-        <v>1.042384777741104</v>
+        <v>1.041259430573671</v>
       </c>
       <c r="M7">
-        <v>1.051374333415677</v>
+        <v>1.050430926631111</v>
       </c>
       <c r="N7">
-        <v>1.016487777018367</v>
+        <v>1.016951570289397</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.049231677339298</v>
+        <v>1.048485042650681</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.044039467846491</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.042546514199129</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023615645594479</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.014419887113415</v>
+        <v>1.013373134979334</v>
       </c>
       <c r="D8">
-        <v>1.032793701087811</v>
+        <v>1.031096324454863</v>
       </c>
       <c r="E8">
-        <v>1.027949839816457</v>
+        <v>1.027158914808678</v>
       </c>
       <c r="F8">
-        <v>1.037379779989797</v>
+        <v>1.036695984079892</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.054353746139592</v>
+        <v>1.053495046831068</v>
       </c>
       <c r="J8">
-        <v>1.035617910631108</v>
+        <v>1.034600397313517</v>
       </c>
       <c r="K8">
-        <v>1.043547053490959</v>
+        <v>1.041870927639498</v>
       </c>
       <c r="L8">
-        <v>1.038764067944219</v>
+        <v>1.037983151031915</v>
       </c>
       <c r="M8">
-        <v>1.048076148668966</v>
+        <v>1.047400809355251</v>
       </c>
       <c r="N8">
-        <v>1.015184268754495</v>
+        <v>1.016099792218371</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.04662141178007</v>
+        <v>1.046086930288494</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.041884627188969</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.040710489452217</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.023047768292648</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.003357601799614</v>
+        <v>1.003063631358388</v>
       </c>
       <c r="D9">
-        <v>1.025153215398209</v>
+        <v>1.024281038846009</v>
       </c>
       <c r="E9">
-        <v>1.01927813584597</v>
+        <v>1.019116487761461</v>
       </c>
       <c r="F9">
-        <v>1.029351582402613</v>
+        <v>1.029157644812612</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.05140128103761</v>
+        <v>1.050964869814996</v>
       </c>
       <c r="J9">
-        <v>1.028792349087591</v>
+        <v>1.028508666822158</v>
       </c>
       <c r="K9">
-        <v>1.037850967644513</v>
+        <v>1.036992084391757</v>
       </c>
       <c r="L9">
-        <v>1.032065994483854</v>
+        <v>1.031906844358007</v>
       </c>
       <c r="M9">
-        <v>1.041985746529902</v>
+        <v>1.041794731748209</v>
       </c>
       <c r="N9">
-        <v>1.01275501671304</v>
+        <v>1.014415727558013</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.041801291465131</v>
+        <v>1.041650116329087</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.037853960762151</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.037257399730426</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021955844702194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9957242078333112</v>
+        <v>0.9960068736574438</v>
       </c>
       <c r="D10">
-        <v>1.019901108801862</v>
+        <v>1.019638894406293</v>
       </c>
       <c r="E10">
-        <v>1.013373634392592</v>
+        <v>1.01369302110883</v>
       </c>
       <c r="F10">
-        <v>1.023936726297187</v>
+        <v>1.024117290338791</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.049316118447208</v>
+        <v>1.049191334122801</v>
       </c>
       <c r="J10">
-        <v>1.02410850314178</v>
+        <v>1.024379821625084</v>
       </c>
       <c r="K10">
-        <v>1.03392010481665</v>
+        <v>1.033662390485101</v>
       </c>
       <c r="L10">
-        <v>1.027505550297143</v>
+        <v>1.027819368075492</v>
       </c>
       <c r="M10">
-        <v>1.03788683924973</v>
+        <v>1.038064337663012</v>
       </c>
       <c r="N10">
-        <v>1.011110297627332</v>
+        <v>1.01340617771839</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.038608709970524</v>
+        <v>1.038749179666645</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.035091391170786</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.034921588367033</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.021214072832835</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9931453918098437</v>
+        <v>0.9936336048219869</v>
       </c>
       <c r="D11">
-        <v>1.018165485223794</v>
+        <v>1.018127211941078</v>
       </c>
       <c r="E11">
-        <v>1.011721289179049</v>
+        <v>1.012195315930991</v>
       </c>
       <c r="F11">
-        <v>1.022763518077914</v>
+        <v>1.02307183806068</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.048734558916897</v>
+        <v>1.048725240186025</v>
       </c>
       <c r="J11">
-        <v>1.022806137190581</v>
+        <v>1.02327365276497</v>
       </c>
       <c r="K11">
-        <v>1.032752769726879</v>
+        <v>1.032715185174418</v>
       </c>
       <c r="L11">
-        <v>1.026425493443567</v>
+        <v>1.026890853688461</v>
       </c>
       <c r="M11">
-        <v>1.037268547461709</v>
+        <v>1.037571386173261</v>
       </c>
       <c r="N11">
-        <v>1.01083787967154</v>
+        <v>1.013450887284394</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.038555571320449</v>
+        <v>1.038795113103283</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.034298897775431</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.034287954773115</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.021081813100318</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9924596737298379</v>
+        <v>0.9929862197817153</v>
       </c>
       <c r="D12">
-        <v>1.017712279658453</v>
+        <v>1.01772688425345</v>
       </c>
       <c r="E12">
-        <v>1.011437904170431</v>
+        <v>1.011929025198096</v>
       </c>
       <c r="F12">
-        <v>1.022756254338016</v>
+        <v>1.02308456713243</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.048635986077719</v>
+        <v>1.048654356820168</v>
       </c>
       <c r="J12">
-        <v>1.022586617865896</v>
+        <v>1.023090410438954</v>
       </c>
       <c r="K12">
-        <v>1.032507829753175</v>
+        <v>1.032522167089286</v>
       </c>
       <c r="L12">
-        <v>1.026349204431711</v>
+        <v>1.026831197683231</v>
       </c>
       <c r="M12">
-        <v>1.037460091628035</v>
+        <v>1.037782475579067</v>
       </c>
       <c r="N12">
-        <v>1.010901251652164</v>
+        <v>1.013586992167602</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.039033383516446</v>
+        <v>1.039288299096966</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.034125716983841</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.034151487361668</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.02109094858535</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9932105717276266</v>
+        <v>0.993630275259041</v>
       </c>
       <c r="D13">
-        <v>1.018240374980377</v>
+        <v>1.018166008236171</v>
       </c>
       <c r="E13">
-        <v>1.012212642669658</v>
+        <v>1.012600439787593</v>
       </c>
       <c r="F13">
-        <v>1.023673847437715</v>
+        <v>1.023928651622184</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.048920869888471</v>
+        <v>1.048894102680941</v>
       </c>
       <c r="J13">
-        <v>1.023211394588189</v>
+        <v>1.023613064255342</v>
       </c>
       <c r="K13">
-        <v>1.032983377685025</v>
+        <v>1.032910365599206</v>
       </c>
       <c r="L13">
-        <v>1.027066287974685</v>
+        <v>1.027446915164858</v>
       </c>
       <c r="M13">
-        <v>1.038318566390475</v>
+        <v>1.038568794797625</v>
       </c>
       <c r="N13">
-        <v>1.011242546810017</v>
+        <v>1.013774423846627</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.039988688653258</v>
+        <v>1.040186499725177</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.034459450743974</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.034423214190844</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.021217062774212</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9943831773164105</v>
+        <v>0.9946649097086606</v>
       </c>
       <c r="D14">
-        <v>1.019053158501914</v>
+        <v>1.01885421464071</v>
       </c>
       <c r="E14">
-        <v>1.013229294445645</v>
+        <v>1.013493352408754</v>
       </c>
       <c r="F14">
-        <v>1.024730481491075</v>
+        <v>1.024893698230212</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.04929261272308</v>
+        <v>1.0492022596805</v>
       </c>
       <c r="J14">
-        <v>1.024027494994254</v>
+        <v>1.024297305290118</v>
       </c>
       <c r="K14">
-        <v>1.03364099802091</v>
+        <v>1.033445631464658</v>
       </c>
       <c r="L14">
-        <v>1.02792261239111</v>
+        <v>1.028181853743495</v>
       </c>
       <c r="M14">
-        <v>1.03921699378346</v>
+        <v>1.039377319011669</v>
       </c>
       <c r="N14">
-        <v>1.01160557809459</v>
+        <v>1.013930621790399</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.040872072270004</v>
+        <v>1.040998795836937</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.034925836127628</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.034803221489861</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021358986492142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9949916147026463</v>
+        <v>0.9952078540870023</v>
       </c>
       <c r="D15">
-        <v>1.019474502660606</v>
+        <v>1.019214016611085</v>
       </c>
       <c r="E15">
-        <v>1.013721294326647</v>
+        <v>1.013928940041857</v>
       </c>
       <c r="F15">
-        <v>1.025208378080633</v>
+        <v>1.025328836325348</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.04947247358281</v>
+        <v>1.049350616542428</v>
       </c>
       <c r="J15">
-        <v>1.024421882943187</v>
+        <v>1.024629055129094</v>
       </c>
       <c r="K15">
-        <v>1.033968330263877</v>
+        <v>1.033712491534884</v>
       </c>
       <c r="L15">
-        <v>1.028318487926671</v>
+        <v>1.028522376406386</v>
       </c>
       <c r="M15">
-        <v>1.039600683086042</v>
+        <v>1.039719024309251</v>
       </c>
       <c r="N15">
-        <v>1.011760947727468</v>
+        <v>1.013987795123019</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.041212845620137</v>
+        <v>1.041306381924092</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.035163143574858</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.034998340239912</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.02142322273434</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9980887473741197</v>
+        <v>0.9980092023475123</v>
       </c>
       <c r="D16">
-        <v>1.021606452219333</v>
+        <v>1.021052674834976</v>
       </c>
       <c r="E16">
-        <v>1.016081763535362</v>
+        <v>1.016045453687986</v>
       </c>
       <c r="F16">
-        <v>1.027360481413682</v>
+        <v>1.027290610962983</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.05032366050008</v>
+        <v>1.05005132700578</v>
       </c>
       <c r="J16">
-        <v>1.026301372194063</v>
+        <v>1.026224990497741</v>
       </c>
       <c r="K16">
-        <v>1.035560688837397</v>
+        <v>1.035016350133457</v>
       </c>
       <c r="L16">
-        <v>1.03013075979239</v>
+        <v>1.030095077141698</v>
       </c>
       <c r="M16">
-        <v>1.041217421672484</v>
+        <v>1.041148724250859</v>
       </c>
       <c r="N16">
-        <v>1.012396962149195</v>
+        <v>1.014197519303682</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.042452042466652</v>
+        <v>1.04239774280133</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.03629215803032</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.035923667755698</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021705408604544</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9998525620621868</v>
+        <v>0.9996295305910989</v>
       </c>
       <c r="D17">
-        <v>1.0228182650976</v>
+        <v>1.02211265176543</v>
       </c>
       <c r="E17">
-        <v>1.01736266921902</v>
+        <v>1.017212523276564</v>
       </c>
       <c r="F17">
-        <v>1.028454530718463</v>
+        <v>1.028293262027711</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.05077906429597</v>
+        <v>1.050428698450679</v>
       </c>
       <c r="J17">
-        <v>1.027316407271905</v>
+        <v>1.027101952839968</v>
       </c>
       <c r="K17">
-        <v>1.036437696391203</v>
+        <v>1.035743765057241</v>
       </c>
       <c r="L17">
-        <v>1.031072965913195</v>
+        <v>1.030925338484976</v>
       </c>
       <c r="M17">
-        <v>1.041981388496889</v>
+        <v>1.041822750459739</v>
       </c>
       <c r="N17">
-        <v>1.012695626916641</v>
+        <v>1.014307081277771</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.042927056483094</v>
+        <v>1.042801653665331</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.036914815624214</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.036440802386644</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021848943556171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.000607264154588</v>
+        <v>1.000347997995358</v>
       </c>
       <c r="D18">
-        <v>1.023325250873222</v>
+        <v>1.022568308192606</v>
       </c>
       <c r="E18">
-        <v>1.017790003867802</v>
+        <v>1.017619159380703</v>
       </c>
       <c r="F18">
-        <v>1.028679346947768</v>
+        <v>1.028496880360631</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.050922465327564</v>
+        <v>1.050545451035191</v>
       </c>
       <c r="J18">
-        <v>1.027647349395288</v>
+        <v>1.027397864828705</v>
       </c>
       <c r="K18">
-        <v>1.036753150470707</v>
+        <v>1.036008531307945</v>
       </c>
       <c r="L18">
-        <v>1.03130856521303</v>
+        <v>1.031140539174711</v>
       </c>
       <c r="M18">
-        <v>1.042020742595383</v>
+        <v>1.041841205032276</v>
       </c>
       <c r="N18">
-        <v>1.012710803530204</v>
+        <v>1.014286314667081</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.042720881014034</v>
+        <v>1.042578927695408</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.037126225596998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.036615236016642</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.02187294361543</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.000456385893546</v>
+        <v>1.000249084941603</v>
       </c>
       <c r="D19">
-        <v>1.023206285982554</v>
+        <v>1.022483669565257</v>
       </c>
       <c r="E19">
-        <v>1.017446977027306</v>
+        <v>1.017331869995991</v>
       </c>
       <c r="F19">
-        <v>1.028112491565134</v>
+        <v>1.027966930547003</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.050791360711624</v>
+        <v>1.050431435184002</v>
       </c>
       <c r="J19">
-        <v>1.027367636126324</v>
+        <v>1.027168113224641</v>
       </c>
       <c r="K19">
-        <v>1.036573658552917</v>
+        <v>1.035862747043107</v>
       </c>
       <c r="L19">
-        <v>1.030908232475372</v>
+        <v>1.030795015744869</v>
       </c>
       <c r="M19">
-        <v>1.041400951466664</v>
+        <v>1.041257717787998</v>
       </c>
       <c r="N19">
-        <v>1.012484086951281</v>
+        <v>1.014135812368635</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.041905876425875</v>
+        <v>1.041792590287374</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.037005708112342</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.036519176994405</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021792911054564</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9977520337542363</v>
+        <v>0.9978443673432336</v>
       </c>
       <c r="D20">
-        <v>1.021309850233391</v>
+        <v>1.020860657478693</v>
       </c>
       <c r="E20">
-        <v>1.014948320637644</v>
+        <v>1.015105754007799</v>
       </c>
       <c r="F20">
-        <v>1.025374444977895</v>
+        <v>1.02543023050021</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.049885997205848</v>
+        <v>1.049665313260207</v>
       </c>
       <c r="J20">
-        <v>1.025369886606093</v>
+        <v>1.025458638660558</v>
       </c>
       <c r="K20">
-        <v>1.034988062822917</v>
+        <v>1.034546353949446</v>
       </c>
       <c r="L20">
-        <v>1.02873331768281</v>
+        <v>1.028888087539773</v>
       </c>
       <c r="M20">
-        <v>1.038985321965817</v>
+        <v>1.039040188101727</v>
       </c>
       <c r="N20">
-        <v>1.011569267314286</v>
+        <v>1.013607268843598</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.039467495900526</v>
+        <v>1.039510916680899</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.035888559083929</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.035592760053811</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021415793246156</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9918401363087063</v>
+        <v>0.9925493619704245</v>
       </c>
       <c r="D21">
-        <v>1.017238514482669</v>
+        <v>1.017381403491903</v>
       </c>
       <c r="E21">
-        <v>1.010324478778814</v>
+        <v>1.011009934857205</v>
       </c>
       <c r="F21">
-        <v>1.021071708116188</v>
+        <v>1.021533085828949</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.04822045471161</v>
+        <v>1.04830350864037</v>
       </c>
       <c r="J21">
-        <v>1.02168302452393</v>
+        <v>1.022361928282586</v>
       </c>
       <c r="K21">
-        <v>1.031900495753086</v>
+        <v>1.032040796170678</v>
       </c>
       <c r="L21">
-        <v>1.025112855631196</v>
+        <v>1.025785680286932</v>
       </c>
       <c r="M21">
-        <v>1.035664572918475</v>
+        <v>1.036117676941267</v>
       </c>
       <c r="N21">
-        <v>1.010238804154595</v>
+        <v>1.013183505447611</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.036798497999853</v>
+        <v>1.037157101217787</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.033708778818507</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.033824822407683</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020857926168314</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.988066467336411</v>
+        <v>0.9891711289478214</v>
       </c>
       <c r="D22">
-        <v>1.014640618572051</v>
+        <v>1.015162398829075</v>
       </c>
       <c r="E22">
-        <v>1.007399756493643</v>
+        <v>1.0084240848541</v>
       </c>
       <c r="F22">
-        <v>1.018377534576699</v>
+        <v>1.019099189676201</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.047148753574162</v>
+        <v>1.047425909147839</v>
       </c>
       <c r="J22">
-        <v>1.019339520188757</v>
+        <v>1.020394081430908</v>
       </c>
       <c r="K22">
-        <v>1.029927516341626</v>
+        <v>1.030439353253584</v>
       </c>
       <c r="L22">
-        <v>1.022826034366223</v>
+        <v>1.023830486012327</v>
       </c>
       <c r="M22">
-        <v>1.033593513321242</v>
+        <v>1.034301551165841</v>
       </c>
       <c r="N22">
-        <v>1.009397086468046</v>
+        <v>1.012911932358174</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.035159382821924</v>
+        <v>1.035719751274079</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.032300272051915</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.03267772047167</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020501382620192</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9900597623730452</v>
+        <v>0.9909387994532163</v>
       </c>
       <c r="D23">
-        <v>1.016007342049255</v>
+        <v>1.016316330480062</v>
       </c>
       <c r="E23">
-        <v>1.008941030488693</v>
+        <v>1.009771475465158</v>
       </c>
       <c r="F23">
-        <v>1.019800138623298</v>
+        <v>1.020373053581849</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.047712477706362</v>
+        <v>1.047880505254404</v>
       </c>
       <c r="J23">
-        <v>1.020572155527802</v>
+        <v>1.021412543724053</v>
       </c>
       <c r="K23">
-        <v>1.030962595841784</v>
+        <v>1.031265850536053</v>
       </c>
       <c r="L23">
-        <v>1.024028662901664</v>
+        <v>1.024843424981959</v>
       </c>
       <c r="M23">
-        <v>1.034685324701021</v>
+        <v>1.035247714674723</v>
       </c>
       <c r="N23">
-        <v>1.009834168359351</v>
+        <v>1.013002801575694</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.036023484262802</v>
+        <v>1.036468580867189</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.033022463129826</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.033251489414607</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020680406553518</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9977459083901633</v>
+        <v>0.997846951026892</v>
       </c>
       <c r="D24">
-        <v>1.021294296435561</v>
+        <v>1.020849780896544</v>
       </c>
       <c r="E24">
-        <v>1.014907359990776</v>
+        <v>1.015074535553422</v>
       </c>
       <c r="F24">
-        <v>1.025307126860116</v>
+        <v>1.025369422237132</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.049865479984952</v>
+        <v>1.049647189966329</v>
       </c>
       <c r="J24">
-        <v>1.025331004678536</v>
+        <v>1.025428133453428</v>
       </c>
       <c r="K24">
-        <v>1.034957502647404</v>
+        <v>1.034520383819511</v>
       </c>
       <c r="L24">
-        <v>1.028677647302122</v>
+        <v>1.028841997901492</v>
       </c>
       <c r="M24">
-        <v>1.0389039332447</v>
+        <v>1.038965203097352</v>
       </c>
       <c r="N24">
-        <v>1.011530618800956</v>
+        <v>1.013580017798368</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.039362243153072</v>
+        <v>1.039410734208484</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.035839547093048</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.035544320225914</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021398972017447</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.00630515552842</v>
+        <v>1.005791598512918</v>
       </c>
       <c r="D25">
-        <v>1.027196112579451</v>
+        <v>1.026091623762487</v>
       </c>
       <c r="E25">
-        <v>1.0215864632578</v>
+        <v>1.021239987092958</v>
       </c>
       <c r="F25">
-        <v>1.031482019217796</v>
+        <v>1.031144799816888</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.052206557433318</v>
+        <v>1.051651238693037</v>
       </c>
       <c r="J25">
-        <v>1.030622173388825</v>
+        <v>1.030125612015594</v>
       </c>
       <c r="K25">
-        <v>1.039386419479325</v>
+        <v>1.038297966317654</v>
       </c>
       <c r="L25">
-        <v>1.033858670553618</v>
+        <v>1.033517290373834</v>
       </c>
       <c r="M25">
-        <v>1.04361051243618</v>
+        <v>1.043278133011921</v>
       </c>
       <c r="N25">
-        <v>1.013415243638834</v>
+        <v>1.014835874173488</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.043087181286774</v>
+        <v>1.042824126150058</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.038968147445466</v>
+        <v>1.038212071783116</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022253152879804</v>
       </c>
     </row>
   </sheetData>
